--- a/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
+++ b/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD3214-FF50-4A43-BC87-A10507F15491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F76CAF-4C50-4D21-8662-3109B27DEA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="276">
   <si>
     <t>NO</t>
   </si>
@@ -612,9 +612,6 @@
     <t>October 17,2022</t>
   </si>
   <si>
-    <t xml:space="preserve">   TOPS WASTE detailed at Rescue</t>
-  </si>
-  <si>
     <t>TERESITA</t>
   </si>
   <si>
@@ -826,6 +823,42 @@
   </si>
   <si>
     <t>Draftsman II</t>
+  </si>
+  <si>
+    <t>ANNUAL SALARY</t>
+  </si>
+  <si>
+    <t>MOTHLY SALARY</t>
+  </si>
+  <si>
+    <t>WILMA</t>
+  </si>
+  <si>
+    <t>BAYAS</t>
+  </si>
+  <si>
+    <t>City Civil Registrar</t>
+  </si>
+  <si>
+    <t>City Civil Registrar Office</t>
+  </si>
+  <si>
+    <t>INOCENCIO</t>
+  </si>
+  <si>
+    <t>TOPS WASTE detailed at Rescue</t>
+  </si>
+  <si>
+    <t>Vice Mayor's Office detailed at Civil Security Unit</t>
+  </si>
+  <si>
+    <t>ELSA</t>
+  </si>
+  <si>
+    <t>Admin Aide IV(Clerk II)</t>
+  </si>
+  <si>
+    <t>Secretary to the Sangguniang Panlungsod</t>
   </si>
 </sst>
 </file>
@@ -879,7 +912,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -887,11 +920,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,8 +980,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,8 +1082,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q68" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q73" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE" dataDxfId="15"/>
@@ -1384,10 +1435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="L58" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,7 +1534,7 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>14</v>
@@ -1535,7 +1586,7 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>18</v>
@@ -1587,7 +1638,7 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -1639,7 +1690,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>25</v>
@@ -1691,7 +1742,7 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>28</v>
@@ -1743,7 +1794,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>32</v>
@@ -1795,7 +1846,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>145</v>
@@ -1847,7 +1898,7 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>46</v>
@@ -1899,7 +1950,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>51</v>
@@ -1949,10 +2000,10 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K11" s="2">
         <v>93942</v>
@@ -2001,10 +2052,10 @@
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K12" s="2">
         <v>93942</v>
@@ -2051,10 +2102,10 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K13" s="2">
         <v>11374</v>
@@ -2103,7 +2154,7 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>18</v>
@@ -2155,7 +2206,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>28</v>
@@ -2207,7 +2258,7 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>68</v>
@@ -2259,7 +2310,7 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>72</v>
@@ -2311,7 +2362,7 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>76</v>
@@ -2415,7 +2466,7 @@
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>84</v>
@@ -2467,7 +2518,7 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>84</v>
@@ -2675,7 +2726,7 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>68</v>
@@ -2783,7 +2834,7 @@
         <v>44651</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>109</v>
@@ -3048,7 +3099,7 @@
         <v>44712</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>129</v>
@@ -3156,7 +3207,7 @@
         <v>44742</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>117</v>
@@ -3210,7 +3261,7 @@
         <v>44742</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>117</v>
@@ -3264,7 +3315,7 @@
         <v>44742</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>117</v>
@@ -3316,7 +3367,7 @@
         <v>44742</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>117</v>
@@ -3476,7 +3527,7 @@
         <v>44742</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>117</v>
@@ -3530,7 +3581,7 @@
         <v>44742</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>117</v>
@@ -3584,10 +3635,10 @@
         <v>44742</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K42" s="2">
         <v>98900</v>
@@ -3749,7 +3800,7 @@
         <v>173</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K45" s="2">
         <v>10934</v>
@@ -3857,7 +3908,7 @@
         <v>173</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K47" s="2">
         <v>10494</v>
@@ -4127,7 +4178,7 @@
         <v>189</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K52" s="2">
         <v>21257</v>
@@ -4178,10 +4229,10 @@
         <v>192</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="K53" s="2">
         <v>13419</v>
@@ -4216,13 +4267,13 @@
         <v>37</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D54,"  ",F54),CONCATENATE(D54," ",LEFT(E54,1),".  ",F54)))</f>
@@ -4235,7 +4286,7 @@
         <v>173</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K54" s="2">
         <v>10934</v>
@@ -4270,20 +4321,20 @@
         <v>37</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>151</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D55,"  ",F55),CONCATENATE(D55," ",LEFT(E55,1),".  ",F55)))</f>
         <v>AMY LOU T.  MARAÑON</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>173</v>
@@ -4312,7 +4363,7 @@
         <v>65475.084146999994</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4377,7 @@
         <v>36</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>183</v>
@@ -4342,10 +4393,10 @@
         <v>44742</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K56" s="2">
         <v>24167</v>
@@ -4368,7 +4419,7 @@
         <v>183360.2907479915</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4433,13 @@
         <v>38</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D57,"  ",F57),CONCATENATE(D57," ",LEFT(E57,1),".  ",F57)))</f>
@@ -4436,13 +4487,13 @@
         <v>38</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G58" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D58,"  ",F58),CONCATENATE(D58," ",LEFT(E58,1),".  ",F58)))</f>
@@ -4455,7 +4506,7 @@
         <v>80</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K58" s="2">
         <v>13419</v>
@@ -4490,13 +4541,13 @@
         <v>36</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D59,"  ",F59),CONCATENATE(D59," ",LEFT(E59,1),".  ",F59)))</f>
@@ -4509,7 +4560,7 @@
         <v>173</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K59" s="2">
         <v>11814</v>
@@ -4532,7 +4583,7 @@
         <v>47682.941715749999</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,10 +4613,10 @@
         <v>44742</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K60" s="2">
         <v>13419</v>
@@ -4588,7 +4639,7 @@
         <v>61031.462074846197</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4653,13 @@
         <v>36</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D61,"  ",F61),CONCATENATE(D61," ",LEFT(E61,1),".  ",F61)))</f>
@@ -4618,10 +4669,10 @@
         <v>38092</v>
       </c>
       <c r="I61" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="K61" s="2">
         <v>14944</v>
@@ -4644,7 +4695,7 @@
         <v>165884.6370547392</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,7 +4709,7 @@
         <v>36</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>23</v>
@@ -4674,10 +4725,10 @@
         <v>44816</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K62" s="2">
         <v>13419</v>
@@ -4700,7 +4751,7 @@
         <v>74282.947540924491</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,7 +4765,7 @@
         <v>38</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>44</v>
@@ -4730,10 +4781,10 @@
         <v>43647</v>
       </c>
       <c r="I63" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="K63" s="2">
         <v>102072</v>
@@ -4756,7 +4807,7 @@
         <v>1131398.813112</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,7 +4824,7 @@
         <v>57</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>58</v>
@@ -4789,7 +4840,7 @@
         <v>173</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K64" s="2">
         <v>11814</v>
@@ -4812,7 +4863,7 @@
         <v>65095.898007505195</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4877,13 @@
         <v>36</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D65,"  ",F65),CONCATENATE(D65," ",LEFT(E65,1),".  ",F65)))</f>
@@ -4842,10 +4893,10 @@
         <v>44855</v>
       </c>
       <c r="I65" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="K65" s="2">
         <v>16033</v>
@@ -4868,7 +4919,7 @@
         <v>109333.30861265</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4933,13 @@
         <v>36</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D66,"  ",F66),CONCATENATE(D66," ",LEFT(E66,1),".  ",F66)))</f>
@@ -4898,10 +4949,10 @@
         <v>44774</v>
       </c>
       <c r="I66" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="K66" s="2">
         <v>26228</v>
@@ -4924,7 +4975,7 @@
         <v>160407.68339831798</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4989,13 @@
         <v>36</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D67,"  ",F67),CONCATENATE(D67," ",LEFT(E67,1),".  ",F67)))</f>
@@ -4954,10 +5005,10 @@
         <v>44926</v>
       </c>
       <c r="I67" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="K67" s="2">
         <v>16157</v>
@@ -4980,7 +5031,7 @@
         <v>84914.058896156697</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,7 +5045,7 @@
         <v>36</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>44</v>
@@ -5002,7 +5053,7 @@
       <c r="F68" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="14" t="str">
+      <c r="G68" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D68,"  ",F68),CONCATENATE(D68," ",LEFT(E68,1),".  ",F68)))</f>
         <v>JUANITA M.  DE CASTRO</v>
       </c>
@@ -5010,10 +5061,10 @@
         <v>44926</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K68" s="2">
         <v>18048</v>
@@ -5036,8 +5087,256 @@
         <v>83665.185894873604</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" s="10">
+        <v>44917</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="6" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D69,"  ",F69),CONCATENATE(D69," ",LEFT(E69,1),".  ",F69)))</f>
+        <v>JULIET B.  GALANG</v>
+      </c>
+      <c r="H69" s="7">
+        <v>44742</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K69" s="2">
+        <v>18048</v>
+      </c>
+      <c r="L69" s="12">
+        <v>60.75</v>
+      </c>
+      <c r="M69" s="3">
+        <v>89</v>
+      </c>
+      <c r="N69" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>149.75</v>
+      </c>
+      <c r="O69" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P69" s="2">
+        <f t="shared" ref="P69:P73" si="12">PRODUCT(K69,N69,O69)</f>
+        <v>130249.8319776</v>
+      </c>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70" s="10">
+        <v>44917</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G70" s="6" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D70,"  ",F70),CONCATENATE(D70," ",LEFT(E70,1),".  ",F70)))</f>
+        <v>WILMA  BAYAS</v>
+      </c>
+      <c r="H70" s="7">
+        <v>40056</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K70" s="2">
+        <v>26859</v>
+      </c>
+      <c r="L70" s="12">
+        <v>155.494</v>
+      </c>
+      <c r="M70" s="3">
+        <v>175</v>
+      </c>
+      <c r="N70" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>330.49400000000003</v>
+      </c>
+      <c r="O70" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P70" s="2">
+        <f t="shared" si="12"/>
+        <v>427793.98808727425</v>
+      </c>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71" s="10">
+        <v>44917</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G71" s="6" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D71,"  ",F71),CONCATENATE(D71," ",LEFT(E71,1),".  ",F71)))</f>
+        <v>INOCENCIO M.  ANGCAYA</v>
+      </c>
+      <c r="H71" s="7">
+        <v>44406</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K71" s="2">
+        <v>11374</v>
+      </c>
+      <c r="L71" s="12">
+        <v>38.707999999999998</v>
+      </c>
+      <c r="M71" s="3">
+        <v>53.707999999999998</v>
+      </c>
+      <c r="N71" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>92.415999999999997</v>
+      </c>
+      <c r="O71" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" si="12"/>
+        <v>50657.254629836796</v>
+      </c>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="10">
+        <v>44917</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="6" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D72,"  ",F72),CONCATENATE(D72," ",LEFT(E72,1),".  ",F72)))</f>
+        <v>ELSA T.  REYES</v>
+      </c>
+      <c r="H72" s="7">
+        <v>44926</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K72" s="2">
+        <v>14354</v>
+      </c>
+      <c r="L72" s="12">
+        <v>221.816</v>
+      </c>
+      <c r="M72" s="3">
+        <v>307.75</v>
+      </c>
+      <c r="N72" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>529.56600000000003</v>
+      </c>
+      <c r="O72" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P72" s="2">
+        <f t="shared" si="12"/>
+        <v>366331.52539514279</v>
+      </c>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73" s="10">
+        <v>44917</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D73,"  ",F73),CONCATENATE(D73," ",LEFT(E73,1),".  ",F73)))</f>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P73" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5052,7 +5351,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C68</xm:sqref>
+          <xm:sqref>C2:C73</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5063,45 +5362,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:A7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F2" s="15">
+        <v>517</v>
+      </c>
+      <c r="G2" s="15">
+        <f>F2/12</f>
+        <v>43.083333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <f>F2*22</f>
+        <v>11374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
+++ b/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F76CAF-4C50-4D21-8662-3109B27DEA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43115099-A046-4B58-906D-FA1FCC10EF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COMPUTATION OF TERMINAL" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="ACCOMPLISHMENT REPORT" sheetId="7" r:id="rId1"/>
+    <sheet name="COMPUTATION OF TERMINAL" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="287">
   <si>
     <t>NO</t>
   </si>
@@ -645,9 +639,6 @@
     <t>JUANITO</t>
   </si>
   <si>
-    <t>CSU Lobby</t>
-  </si>
-  <si>
     <t>Administrative Assistant V</t>
   </si>
   <si>
@@ -744,9 +735,6 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>City Vice Mayor's Office</t>
   </si>
   <si>
@@ -859,17 +847,57 @@
   </si>
   <si>
     <t>Secretary to the Sangguniang Panlungsod</t>
+  </si>
+  <si>
+    <t>AMELITA</t>
+  </si>
+  <si>
+    <t>FERMA</t>
+  </si>
+  <si>
+    <t>Agriculturist B</t>
+  </si>
+  <si>
+    <t>City Agriculture Office</t>
+  </si>
+  <si>
+    <t>DUNGO</t>
+  </si>
+  <si>
+    <t>Ticket Checker</t>
+  </si>
+  <si>
+    <t>City Treasurer'S Office</t>
+  </si>
+  <si>
+    <t>Office of the City Mayor</t>
+  </si>
+  <si>
+    <t>PURISIMA CORAZON</t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>DATU</t>
+  </si>
+  <si>
+    <t>Ospital ng Tagaytay</t>
+  </si>
+  <si>
+    <t>Casual Nurse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -912,7 +940,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -935,11 +963,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -984,6 +1123,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,6 +1199,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1081,9 +1236,1626 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ASUS" refreshedDate="44931.428904745371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{02FE22E8-2788-4590-9F8F-30FED0171770}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="17">
+    <cacheField name="NO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="75"/>
+    </cacheField>
+    <cacheField name="DATE" numFmtId="0">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2020-02-07T00:00:00" maxDate="2023-01-04T00:00:00" count="49">
+        <d v="2021-08-25T00:00:00"/>
+        <d v="2021-09-01T00:00:00"/>
+        <d v="2021-09-15T00:00:00"/>
+        <d v="2021-10-14T00:00:00"/>
+        <s v="11/52021"/>
+        <d v="2021-11-08T00:00:00"/>
+        <d v="2021-11-19T00:00:00"/>
+        <d v="2021-11-25T00:00:00"/>
+        <d v="2021-12-02T00:00:00"/>
+        <d v="2022-01-25T00:00:00"/>
+        <d v="2022-02-03T00:00:00"/>
+        <d v="2020-02-07T00:00:00"/>
+        <d v="2022-02-08T00:00:00"/>
+        <d v="2022-03-03T00:00:00"/>
+        <d v="2022-03-04T00:00:00"/>
+        <d v="2022-03-14T00:00:00"/>
+        <d v="2022-03-30T00:00:00"/>
+        <d v="2022-04-04T00:00:00"/>
+        <s v="4//7/2022"/>
+        <d v="2022-04-18T00:00:00"/>
+        <d v="2022-05-17T00:00:00"/>
+        <d v="2022-05-19T00:00:00"/>
+        <d v="2022-06-20T00:00:00"/>
+        <d v="2022-06-24T00:00:00"/>
+        <d v="2022-07-01T00:00:00"/>
+        <d v="2022-07-07T00:00:00"/>
+        <d v="2022-07-25T00:00:00"/>
+        <d v="2022-08-02T00:00:00"/>
+        <d v="2022-08-18T00:00:00"/>
+        <d v="2022-08-22T00:00:00"/>
+        <d v="2022-08-25T00:00:00"/>
+        <d v="2022-09-12T00:00:00"/>
+        <d v="2022-09-15T00:00:00"/>
+        <d v="2022-09-28T00:00:00"/>
+        <d v="2022-10-22T00:00:00"/>
+        <d v="2022-10-25T00:00:00"/>
+        <d v="2022-10-26T00:00:00"/>
+        <d v="2022-10-28T00:00:00"/>
+        <d v="2022-11-07T00:00:00"/>
+        <d v="2022-11-17T00:00:00"/>
+        <d v="2022-11-18T00:00:00"/>
+        <d v="2022-11-22T00:00:00"/>
+        <d v="2022-12-07T00:00:00"/>
+        <d v="2022-12-09T00:00:00"/>
+        <d v="2022-12-14T00:00:00"/>
+        <d v="2022-12-22T00:00:00"/>
+        <d v="2022-12-21T00:00:00"/>
+        <d v="2022-12-23T00:00:00"/>
+        <d v="2023-01-03T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GENDER" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="FIRSTNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="MIDDLE INITIAL" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LASTNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="FULLNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="LASTDAY OF SERVICE" numFmtId="166">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2004-04-15T00:00:00" maxDate="2023-01-04T00:00:00"/>
+    </cacheField>
+    <cacheField name="POSITION" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="OFFICE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="MONTHLY SALARY" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8713" maxValue="121179"/>
+    </cacheField>
+    <cacheField name="VACATION LEAVE" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="428.40499999999997"/>
+    </cacheField>
+    <cacheField name="SICK LEAVE" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="453.97399999999999"/>
+    </cacheField>
+    <cacheField name="TOTAL LEAVE CREDITS" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="18.795999999999999" maxValue="744.05399999999997"/>
+    </cacheField>
+    <cacheField name="CONSTANT FACTOR" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7808700000000003E-2" maxValue="4.8192699999999998E-2"/>
+    </cacheField>
+    <cacheField name="TOTAL LEAVE BENEFITS" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14783.145423743998" maxValue="2955037.3483014335"/>
+    </cacheField>
+    <cacheField name="REMARKS" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="MRS"/>
+    <s v="LINDA"/>
+    <s v="G"/>
+    <s v="BAYBAY"/>
+    <s v="LINDA G.  BAYBAY"/>
+    <m/>
+    <s v="Revenue Collection Clerk I"/>
+    <s v="CTO/DETAILED CIVIL REGISTRY OFFICE"/>
+    <n v="14623"/>
+    <n v="139.47499999999999"/>
+    <n v="0"/>
+    <n v="139.47499999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="98291.080321647489"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="MS"/>
+    <s v="JUDY ANN"/>
+    <s v="B"/>
+    <s v="ALCANTARA"/>
+    <s v="JUDY ANN B.  ALCANTARA"/>
+    <m/>
+    <s v="Admin Aide III"/>
+    <s v="CITY MAYOR'S OFFICE"/>
+    <n v="12893"/>
+    <n v="29.472999999999999"/>
+    <n v="62.25"/>
+    <n v="91.722999999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="56991.946731935299"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="MR"/>
+    <s v="REGINALDO JR."/>
+    <s v="B"/>
+    <s v="BUNGCASAN"/>
+    <s v="REGINALDO JR. B.  BUNGCASAN"/>
+    <m/>
+    <s v="Admin Aide III"/>
+    <s v="TICC-(DETAILED CPDO)"/>
+    <n v="12893"/>
+    <n v="1.663"/>
+    <n v="55.207999999999998"/>
+    <n v="56.870999999999995"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="35336.709468638095"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="MRS"/>
+    <s v="GRACITA "/>
+    <s v="S"/>
+    <s v="ALMARAREZ"/>
+    <s v="GRACITA  S.  ALMARAREZ"/>
+    <m/>
+    <s v="Nurse II"/>
+    <s v="CITY HEALTH OFFICE"/>
+    <n v="32255"/>
+    <n v="428.40499999999997"/>
+    <n v="0"/>
+    <n v="428.40499999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="665936.52497109235"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="MR"/>
+    <s v="AMBION"/>
+    <s v="G"/>
+    <s v="PRISCO"/>
+    <s v="AMBION G.  PRISCO"/>
+    <m/>
+    <s v="Engineer I"/>
+    <s v="CITY ENGINEER'S OFFICE"/>
+    <n v="25019"/>
+    <n v="147.26400000000001"/>
+    <n v="0"/>
+    <n v="147.26400000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="177561.08826568321"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <s v="MR"/>
+    <s v="ALFREDO"/>
+    <s v="C"/>
+    <s v="DIMAPILIS"/>
+    <s v="ALFREDO C.  DIMAPILIS"/>
+    <m/>
+    <s v="Supervising Administrative Officer"/>
+    <s v="BUDGET OFFICE"/>
+    <n v="64994"/>
+    <n v="290.08"/>
+    <n v="453.97399999999999"/>
+    <n v="744.05399999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="2330552.9805497653"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <s v="MRS"/>
+    <s v="PACITA"/>
+    <s v="Z"/>
+    <s v="AQUINO"/>
+    <s v="PACITA Z.  AQUINO"/>
+    <m/>
+    <s v="Executive Asst. Iv"/>
+    <s v="Mayor's Office/Detailed at general Services Office"/>
+    <n v="64994"/>
+    <n v="84.957999999999998"/>
+    <n v="119.958"/>
+    <n v="204.916"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="641845.34262612078"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+    <s v="MRS"/>
+    <s v="MERCED"/>
+    <s v="M"/>
+    <s v="BAYOT"/>
+    <s v="MERCED M.  BAYOT"/>
+    <m/>
+    <s v="Administrative Aide III"/>
+    <s v="TAGAYTAY OFFICE OF PUBLIC SAFETY"/>
+    <n v="12893"/>
+    <n v="65.537000000000006"/>
+    <n v="258.75"/>
+    <n v="324.28700000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="201495.23489047572"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+    <s v="MRS"/>
+    <s v="MARIA CORAZON"/>
+    <s v="P"/>
+    <s v="CABOTE"/>
+    <s v="MARIA CORAZON P.  CABOTE"/>
+    <m/>
+    <s v="Administrative Asst. I"/>
+    <s v="HUMAN REASOURCE MGT. OFFICE"/>
+    <n v="16320"/>
+    <n v="18.795999999999999"/>
+    <m/>
+    <n v="18.795999999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="14783.145423743998"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="5"/>
+    <s v="HON"/>
+    <s v="NATHANIEL"/>
+    <s v="B"/>
+    <s v="BURGOS"/>
+    <s v="NATHANIEL B.  BURGOS"/>
+    <m/>
+    <s v="Abc President"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="93942"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="44"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="199202.01942959998"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="5"/>
+    <s v="HON"/>
+    <s v="LOIS ANDREA "/>
+    <s v="R"/>
+    <s v="PALO"/>
+    <s v="LOIS ANDREA  R.  PALO"/>
+    <m/>
+    <s v="Sk President"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="93942"/>
+    <n v="26.875"/>
+    <n v="26.875"/>
+    <n v="53.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="243343.37600774999"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="6"/>
+    <s v="MR"/>
+    <s v="CONRADO"/>
+    <m/>
+    <s v="ELMIDO"/>
+    <s v="CONRADO  ELMIDO"/>
+    <m/>
+    <s v="Casual"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="11374"/>
+    <n v="41.375"/>
+    <n v="56.375"/>
+    <n v="97.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="53581.053497950001"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="7"/>
+    <s v="MRS"/>
+    <s v="DELIA"/>
+    <s v="D"/>
+    <s v="BROQUEZA"/>
+    <s v="DELIA D.  BROQUEZA"/>
+    <m/>
+    <s v="Senior Labor &amp;Employment 0Fficer"/>
+    <s v="CITY MAYOR'S OFFICE"/>
+    <n v="8713"/>
+    <n v="43.15"/>
+    <n v="75.8"/>
+    <n v="118.94999999999999"/>
+    <n v="4.7808700000000003E-2"/>
+    <n v="49549.479308744994"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="8"/>
+    <s v="MRS"/>
+    <s v="TEOFILA"/>
+    <s v="A"/>
+    <s v="PARAS"/>
+    <s v="TEOFILA A.  PARAS"/>
+    <m/>
+    <s v="Administrative Asst. II"/>
+    <s v="CITY ENGINEER'S OFFICE"/>
+    <n v="17338"/>
+    <n v="59.253"/>
+    <n v="99.167000000000002"/>
+    <n v="158.42000000000002"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="132370.21246449201"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="8"/>
+    <s v="MR"/>
+    <s v="MARCOS NOEL"/>
+    <s v="A."/>
+    <s v="CORTEZ"/>
+    <s v="MARCOS NOEL A.  CORTEZ"/>
+    <m/>
+    <s v="Tax Mapper II"/>
+    <s v="CITY ASSESSOR'S OFFICE"/>
+    <n v="32255"/>
+    <n v="16.257999999999999"/>
+    <n v="198.73699999999999"/>
+    <n v="214.995"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="334200.16849980754"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="9"/>
+    <s v="MR"/>
+    <s v="ROMEO"/>
+    <s v="B."/>
+    <s v="MENDOZA"/>
+    <s v="ROMEO B.  MENDOZA"/>
+    <m/>
+    <s v="Parking Aide Iv"/>
+    <s v="TOPS Waste Management"/>
+    <n v="16320"/>
+    <n v="42.085999999999999"/>
+    <n v="153.75"/>
+    <n v="195.83600000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="154025.966546304"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="10"/>
+    <s v="MRS"/>
+    <s v="JUANITA "/>
+    <s v="G."/>
+    <s v="ANAY"/>
+    <s v="JUANITA  G.  ANAY"/>
+    <m/>
+    <s v="Casual"/>
+    <s v="CENRO"/>
+    <n v="11374"/>
+    <n v="21.792000000000002"/>
+    <n v="24.542000000000002"/>
+    <n v="46.334000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="25397.693429913204"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="10"/>
+    <s v="MS"/>
+    <s v="BELEN"/>
+    <s v="C."/>
+    <s v="DE CASTO"/>
+    <s v="BELEN C.  DE CASTO"/>
+    <m/>
+    <s v="Security Guard I"/>
+    <s v="Mayor's Office"/>
+    <n v="12463"/>
+    <n v="111.77500000000001"/>
+    <n v="84.284999999999997"/>
+    <n v="196.06"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="117758.65907680601"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="11"/>
+    <s v="MRS"/>
+    <s v="SONIA"/>
+    <s v="A."/>
+    <s v="VERGARA"/>
+    <s v="SONIA A.  VERGARA"/>
+    <m/>
+    <s v="Revenue Collection Clerk II"/>
+    <s v="CITY TREASURER'S OFFICE"/>
+    <n v="12394"/>
+    <n v="0"/>
+    <n v="56.667000000000002"/>
+    <n v="56.667000000000002"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="33847.217448774602"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="12"/>
+    <s v="MRS"/>
+    <s v="EMMA"/>
+    <s v="R"/>
+    <s v="JAVIER"/>
+    <s v="EMMA R.  JAVIER"/>
+    <m/>
+    <s v="Administrative Aide VI"/>
+    <s v="CITY TREASURER'S OFFICE"/>
+    <n v="16280"/>
+    <n v="158.69999999999999"/>
+    <n v="119.25"/>
+    <n v="277.95"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="218073.22051019999"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="13"/>
+    <s v="MRS"/>
+    <s v="EDWIN"/>
+    <s v="D."/>
+    <s v="MONTENEGRO"/>
+    <s v="EDWIN D.  MONTENEGRO"/>
+    <m/>
+    <s v="Administrative Aide I"/>
+    <s v="CEO/Parks and Plaza"/>
+    <n v="11527"/>
+    <n v="10.586"/>
+    <n v="98.075000000000003"/>
+    <n v="108.661"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="60363.060217366903"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="13"/>
+    <s v="MR"/>
+    <s v="MARIANITO"/>
+    <s v="B"/>
+    <s v="VILLANUEVA"/>
+    <s v="MARIANITO B.  VILLANUEVA"/>
+    <m/>
+    <s v="Casual Employee"/>
+    <s v="CENRO"/>
+    <n v="11374"/>
+    <n v="24.795999999999999"/>
+    <n v="34.332999999999998"/>
+    <n v="59.128999999999998"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="32411.192964504196"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="14"/>
+    <s v="MR"/>
+    <s v="Alexander"/>
+    <s v="t."/>
+    <s v="Zaide"/>
+    <s v="ALEXANDER T.  ZAIDE"/>
+    <m/>
+    <s v="Executive Asst I"/>
+    <s v="Mayor's Office"/>
+    <n v="29259"/>
+    <n v="22.207999999999998"/>
+    <n v="27.207999999999998"/>
+    <n v="49.415999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="69680.029462768798"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="15"/>
+    <s v="ENGR"/>
+    <s v="GREGORIO"/>
+    <s v="M"/>
+    <s v="MONREAL"/>
+    <s v="GREGORIO M.  MONREAL"/>
+    <m/>
+    <s v="City Assessor II"/>
+    <s v="CITY ASSESSOR'S OFFICE"/>
+    <n v="107239"/>
+    <n v="214.488"/>
+    <n v="357.29199999999997"/>
+    <n v="571.78"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="2955037.3483014335"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="16"/>
+    <s v="MS"/>
+    <s v="JESSICA"/>
+    <s v="M."/>
+    <s v="LOZAÑES"/>
+    <s v="JESSICA M.  LOZAÑES"/>
+    <d v="2021-11-30T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="OFFICE OF THE CITY MAYOR"/>
+    <n v="11374"/>
+    <n v="14.917"/>
+    <n v="19.917000000000002"/>
+    <n v="34.834000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="19094.040077213202"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="17"/>
+    <s v="MR"/>
+    <s v="ROLAND ANDREW"/>
+    <s v="G"/>
+    <s v="DE GUZMAN"/>
+    <s v="ROLAND ANDREW G.  DE GUZMAN"/>
+    <d v="2022-03-31T00:00:00"/>
+    <s v="Nurse Iii"/>
+    <s v="OSPITAL NG TAGAYTAY(DETAILED CHO)"/>
+    <n v="39433"/>
+    <n v="23.61"/>
+    <n v="40.396000000000001"/>
+    <n v="64.006"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="121635.89759883461"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="18"/>
+    <s v="MR"/>
+    <s v="VICTOR"/>
+    <s v="V"/>
+    <s v="DE SAGUN"/>
+    <s v="VICTOR V.  DE SAGUN"/>
+    <d v="2020-10-22T00:00:00"/>
+    <s v="Administrative. Asst. V"/>
+    <s v="CITY ENGINEER'S OFFICE"/>
+    <n v="21470"/>
+    <n v="123.605"/>
+    <n v="248.279"/>
+    <n v="371.88400000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="384787.35918479599"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="19"/>
+    <s v="MR"/>
+    <s v="HERMINIO"/>
+    <m/>
+    <s v="ROMILLA"/>
+    <s v="HERMINIO  ROMILLA"/>
+    <d v="2022-04-14T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="11814"/>
+    <n v="44.332999999999998"/>
+    <n v="64.332999999999998"/>
+    <n v="108.666"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="61868.830381894804"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="20"/>
+    <s v="MRS"/>
+    <s v="GLORIA"/>
+    <s v="O"/>
+    <s v="ENRIQUEZ"/>
+    <s v="GLORIA O.  ENRIQUEZ"/>
+    <d v="2021-05-31T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="GENERAL SERVICES OFFICE"/>
+    <n v="11374"/>
+    <n v="36.25"/>
+    <n v="51.25"/>
+    <n v="87.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="47962.579857500001"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="21"/>
+    <s v="MR"/>
+    <s v="MARIO"/>
+    <m/>
+    <s v="BORJA"/>
+    <s v="MARIO  BORJA"/>
+    <d v="2022-01-19T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="GSO/detailed RTC"/>
+    <n v="11814"/>
+    <n v="28.292000000000002"/>
+    <n v="38.292000000000002"/>
+    <n v="66.584000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="37909.504372555202"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="22"/>
+    <s v="MR"/>
+    <s v="CARLOS"/>
+    <s v="J"/>
+    <s v="SUNIGA"/>
+    <s v="CARLOS J.  SUNIGA"/>
+    <d v="2022-05-31T00:00:00"/>
+    <s v="Planning Officer Iv"/>
+    <s v="CITY PLANNING &amp;DEVELOPMENT OFFICE"/>
+    <n v="66465"/>
+    <n v="41.99"/>
+    <n v="97.5"/>
+    <n v="139.49"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="446804.29758919508"/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="23"/>
+    <s v="MR"/>
+    <s v="MANUEL"/>
+    <s v="G"/>
+    <s v="CATALLA"/>
+    <s v="MANUEL G.  CATALLA"/>
+    <d v="2022-01-20T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROOVE"/>
+    <n v="10934"/>
+    <n v="20.832999999999998"/>
+    <n v="30.832999999999998"/>
+    <n v="51.665999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="27224.829433678799"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="24"/>
+    <s v="MR"/>
+    <s v="REYMOND"/>
+    <s v="A"/>
+    <s v="AMBION"/>
+    <s v="REYMOND A.  AMBION"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="City Vice Mayor"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="121179"/>
+    <n v="219"/>
+    <n v="225"/>
+    <n v="444"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="2592934.7778252"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="24"/>
+    <s v="MS"/>
+    <s v="REYVIE"/>
+    <s v="E"/>
+    <s v="QUILAO"/>
+    <s v="REYVIE E.  QUILAO"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Executive Assistant I"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="30705"/>
+    <n v="65"/>
+    <n v="90"/>
+    <n v="155"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="229362.31229249999"/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="24"/>
+    <s v="MS"/>
+    <s v="LORNA"/>
+    <s v="A"/>
+    <s v="PARRA"/>
+    <s v="LORNA A.  PARRA"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Executive Assistant I"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="30705"/>
+    <n v="57.417000000000002"/>
+    <n v="82.417000000000002"/>
+    <n v="139.834"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="206920.31985231899"/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="24"/>
+    <s v="MS"/>
+    <s v="REMY"/>
+    <m/>
+    <s v="CARMONA"/>
+    <s v="REMY  CARMONA"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Administrative Aide III"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="13419"/>
+    <n v="56.042000000000002"/>
+    <n v="81.042000000000002"/>
+    <n v="137.084"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="88651.926876769197"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="24"/>
+    <s v="MR"/>
+    <s v="CONRADO"/>
+    <m/>
+    <s v="ELMIDO"/>
+    <s v="CONRADO  ELMIDO"/>
+    <d v="2021-10-04T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="11374"/>
+    <n v="41.375"/>
+    <n v="56.375"/>
+    <n v="97.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="53581.053497950001"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="25"/>
+    <s v="MR"/>
+    <s v="APOLINAR"/>
+    <s v="N."/>
+    <s v="COSTANTE"/>
+    <s v="APOLINAR N.  COSTANTE"/>
+    <s v="December 6,2021"/>
+    <s v="Casual Employee"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="11374"/>
+    <n v="26.5"/>
+    <n v="36.5"/>
+    <n v="63"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="34533.057497399997"/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="26"/>
+    <s v="MRS"/>
+    <s v="GALANG"/>
+    <s v="B"/>
+    <s v="JULIET"/>
+    <s v="GALANG B.  JULIET"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Local Legislative Staff Asst. II"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="18048"/>
+    <n v="48"/>
+    <n v="75"/>
+    <n v="123"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="106983.1675008"/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="26"/>
+    <s v="MR"/>
+    <s v="DE CASTRO"/>
+    <s v="T"/>
+    <s v="LEO ANGELO"/>
+    <s v="DE CASTRO T.  LEO ANGELO"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Executive Assistant I"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="30705"/>
+    <n v="37.417000000000002"/>
+    <n v="52.417000000000002"/>
+    <n v="89.834000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="132932.477177319"/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="27"/>
+    <s v="MR"/>
+    <s v="CLARO"/>
+    <s v="C"/>
+    <s v="BATINO"/>
+    <s v="CLARO C.  BATINO"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="City Councilor"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="98900"/>
+    <n v="175.167"/>
+    <n v="183.167"/>
+    <n v="358.334"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="1707912.3049220201"/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="28"/>
+    <s v="MR"/>
+    <s v="CARLITO"/>
+    <s v="P"/>
+    <s v="MANALO"/>
+    <s v="CARLITO P.  MANALO"/>
+    <s v="October 25,2020"/>
+    <s v="Regular Casual"/>
+    <s v="Tagaytay International Conetion Center"/>
+    <n v="10934"/>
+    <n v="32.292000000000002"/>
+    <n v="42.292000000000002"/>
+    <n v="74.584000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="39301.217018571202"/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="29"/>
+    <s v="MR"/>
+    <s v="EDMUNDO"/>
+    <s v="R"/>
+    <s v="CASI"/>
+    <s v="EDMUNDO R.  CASI"/>
+    <d v="2022-07-28T00:00:00"/>
+    <s v="Trafic Aide I"/>
+    <s v="TAGAYTAY OFFICE OF PUBLIC SAFETY"/>
+    <n v="13522"/>
+    <n v="270.18700000000001"/>
+    <n v="411.18700000000001"/>
+    <n v="681.37400000000002"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="444025.33195323561"/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="30"/>
+    <s v="MS"/>
+    <s v="FLOR"/>
+    <s v="M"/>
+    <s v="CUENO"/>
+    <s v="FLOR M.  CUENO"/>
+    <s v="February 26,2020"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROVE"/>
+    <n v="10934"/>
+    <n v="22.332999999999998"/>
+    <n v="32.332999999999998"/>
+    <n v="54.665999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="28805.6463790788"/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="31"/>
+    <s v="MR"/>
+    <s v="ANGCAYA"/>
+    <s v="A"/>
+    <s v="IRENEO"/>
+    <s v="ANGCAYA A.  IRENEO"/>
+    <s v="January 7,2022"/>
+    <s v="Administrative Aide"/>
+    <s v="TOPS Waste Management"/>
+    <n v="11990"/>
+    <n v="116.50700000000001"/>
+    <n v="22.501999999999999"/>
+    <n v="139.00900000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="80323.636221257009"/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="32"/>
+    <s v="MR"/>
+    <s v="MELENCIO"/>
+    <s v="M"/>
+    <s v="ALMAREZ"/>
+    <s v="MELENCIO M.  ALMAREZ"/>
+    <s v="December 5,2019"/>
+    <s v="Casual Employee"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="10494"/>
+    <n v="18.917000000000002"/>
+    <n v="28.917000000000002"/>
+    <n v="47.834000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="24191.289426229199"/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="33"/>
+    <s v="MRS"/>
+    <s v="PILILLA"/>
+    <s v="V."/>
+    <s v="AYCARDO"/>
+    <s v="PILILLA V.  AYCARDO"/>
+    <d v="2022-07-31T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="GSO/detailed COA"/>
+    <n v="11814"/>
+    <n v="48.75"/>
+    <n v="68.75"/>
+    <n v="117.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="66898.455541499992"/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="34"/>
+    <s v="MR"/>
+    <s v="GEMINIANO"/>
+    <s v="M"/>
+    <s v="CAGUITLA"/>
+    <s v="GEMINIANO M.  CAGUITLA"/>
+    <d v="2021-09-16T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="CENRO"/>
+    <n v="11374"/>
+    <n v="40.67"/>
+    <n v="55.67"/>
+    <n v="96.34"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="52808.170782532005"/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="35"/>
+    <s v="MR"/>
+    <s v="VIRGILIO"/>
+    <s v="O"/>
+    <s v="FELLO"/>
+    <s v="VIRGILIO O.  FELLO"/>
+    <d v="2022-08-05T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROOVE"/>
+    <n v="11814"/>
+    <n v="48.957999999999998"/>
+    <n v="68.957999999999998"/>
+    <n v="117.916"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="67135.3045415448"/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="35"/>
+    <s v="MRS"/>
+    <s v="CATHERINE"/>
+    <s v="L"/>
+    <s v="NELSON"/>
+    <s v="CATHERINE L.  NELSON"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Dentist II"/>
+    <s v="CITY HEALTH OFFICE"/>
+    <n v="39433"/>
+    <n v="11.625"/>
+    <n v="8.625"/>
+    <n v="20.25"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="38482.750466774996"/>
+    <m/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="35"/>
+    <s v="MR"/>
+    <s v="DANILO"/>
+    <s v="M"/>
+    <s v="CANDELARIA"/>
+    <s v="DANILO M.  CANDELARIA"/>
+    <d v="2022-11-01T00:00:00"/>
+    <s v="Market Spervisor I"/>
+    <s v="Market Enterprise/detailed at CSU"/>
+    <n v="21257"/>
+    <n v="81.900000000000006"/>
+    <n v="70.75"/>
+    <n v="152.65"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="156379.57897833502"/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="36"/>
+    <s v="MR"/>
+    <s v="ANTONIO"/>
+    <s v="E"/>
+    <s v="PEJI"/>
+    <s v="ANTONIO E.  PEJI"/>
+    <s v="October 17,2022"/>
+    <s v="Administrative Aide III"/>
+    <s v="TOPS WASTE detailed at Rescue"/>
+    <n v="13419"/>
+    <n v="52"/>
+    <n v="72"/>
+    <n v="124"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="80190.532321199993"/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="37"/>
+    <s v="MRS"/>
+    <s v="TERESITA"/>
+    <s v="D"/>
+    <s v="DEL MUNDO"/>
+    <s v="TERESITA D.  DEL MUNDO"/>
+    <d v="2020-11-30T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="Sambong Elementary"/>
+    <n v="10934"/>
+    <n v="33.75"/>
+    <n v="43.75"/>
+    <n v="77.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="40837.771089499998"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="37"/>
+    <s v="MRS"/>
+    <s v="AMY LOU"/>
+    <s v="T"/>
+    <s v="MARAÑON"/>
+    <s v="AMY LOU T.  MARAÑON"/>
+    <s v="June 30.2022"/>
+    <s v="Casual Employee"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="11814"/>
+    <n v="47.5"/>
+    <n v="67.5"/>
+    <n v="115"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="65475.084146999994"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="38"/>
+    <s v="MS"/>
+    <s v="LELISA"/>
+    <s v="L"/>
+    <s v="MENDOZA"/>
+    <s v="LELISA L.  MENDOZA"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Administrative Assistant V"/>
+    <s v="CITY VICE MAYOR'S OFFICE"/>
+    <n v="24167"/>
+    <n v="53.31"/>
+    <n v="104.125"/>
+    <n v="157.435"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="183360.2907479915"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="38"/>
+    <s v="MR"/>
+    <s v="LAZARO"/>
+    <s v="C"/>
+    <s v="SESMA"/>
+    <s v="LAZARO C.  SESMA"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROOVE"/>
+    <n v="11814"/>
+    <n v="50"/>
+    <n v="65.5"/>
+    <n v="115.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="65759.7584259"/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="39"/>
+    <s v="MR"/>
+    <s v="JUANITO"/>
+    <s v="P"/>
+    <s v="REYES"/>
+    <s v="JUANITO P.  REYES"/>
+    <d v="2022-08-27T00:00:00"/>
+    <s v="Security Guard I"/>
+    <s v="OFFICE OF THE CITY MAYOR"/>
+    <n v="13419"/>
+    <n v="100.584"/>
+    <n v="140.584"/>
+    <n v="241.16800000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="155962.82499063839"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="39"/>
+    <s v="MS"/>
+    <s v="MINA"/>
+    <s v="H"/>
+    <s v="CAJAS"/>
+    <s v="MINA H.  CAJAS"/>
+    <d v="2022-05-31T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROVE"/>
+    <n v="11814"/>
+    <n v="46.25"/>
+    <n v="37.5"/>
+    <n v="83.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="47682.941715749999"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="39"/>
+    <s v="MS"/>
+    <s v="BENILDA"/>
+    <s v="S"/>
+    <s v="HERNANDO"/>
+    <s v="BENILDA S.  HERNANDO"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Administrative Aide III"/>
+    <s v="CITY VICE MAYOR'S OFFICE"/>
+    <n v="13419"/>
+    <n v="26.457999999999998"/>
+    <n v="67.915999999999997"/>
+    <n v="94.373999999999995"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="61031.462074846197"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="40"/>
+    <s v="MS"/>
+    <s v="MARITES"/>
+    <s v="R"/>
+    <s v="ILUSTRISIMO"/>
+    <s v="MARITES R.  ILUSTRISIMO"/>
+    <d v="2004-04-15T00:00:00"/>
+    <s v="Hotel Operation Specialist"/>
+    <s v="Mahogany Hotel"/>
+    <n v="14944"/>
+    <n v="95.167000000000002"/>
+    <n v="135.167"/>
+    <n v="230.334"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="165884.6370547392"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="41"/>
+    <s v="MS"/>
+    <s v="JOLINA"/>
+    <s v="S"/>
+    <s v="BAYBAY"/>
+    <s v="JOLINA S.  BAYBAY"/>
+    <d v="2022-09-12T00:00:00"/>
+    <s v="Administrative Aide III (Clerk I)"/>
+    <s v="City Planning &amp; Development Office"/>
+    <n v="13419"/>
+    <n v="44.906999999999996"/>
+    <n v="69.957999999999998"/>
+    <n v="114.86499999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="74282.947540924491"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="42"/>
+    <s v="MR"/>
+    <s v="ESTEBAN"/>
+    <s v="M"/>
+    <s v="MENDOZA"/>
+    <s v="ESTEBAN M.  MENDOZA"/>
+    <d v="2019-07-01T00:00:00"/>
+    <s v="City Councilor II"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="102072"/>
+    <n v="95"/>
+    <n v="135"/>
+    <n v="230"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="1131398.813112"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="42"/>
+    <s v="MR"/>
+    <s v="CONRADO"/>
+    <s v="H"/>
+    <s v="ELMIDO"/>
+    <s v="CONRADO H.  ELMIDO"/>
+    <d v="2022-06-23T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="11814"/>
+    <n v="47.167000000000002"/>
+    <n v="67.167000000000002"/>
+    <n v="114.334"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="65095.898007505195"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="42"/>
+    <s v="MS"/>
+    <s v="BRIGIDA"/>
+    <s v="M"/>
+    <s v="SEPINO"/>
+    <s v="BRIGIDA M.  SEPINO"/>
+    <d v="2022-10-21T00:00:00"/>
+    <s v="Daycare Worker I"/>
+    <s v="City Social Welfare Development Office"/>
+    <n v="16033"/>
+    <n v="61.375"/>
+    <n v="80.125"/>
+    <n v="141.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="109333.30861265"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="43"/>
+    <s v="MS"/>
+    <s v="DINAH"/>
+    <s v="G"/>
+    <s v="TORRES"/>
+    <s v="DINAH G.  TORRES"/>
+    <d v="2022-08-01T00:00:00"/>
+    <s v="Instructor I"/>
+    <s v="City College of Tagaytay"/>
+    <n v="26228"/>
+    <n v="34.905000000000001"/>
+    <n v="92"/>
+    <n v="126.905"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="160407.68339831798"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="44"/>
+    <s v="MS"/>
+    <s v="ESTER"/>
+    <s v="B"/>
+    <s v="DEL MUNDO"/>
+    <s v="ESTER B.  DEL MUNDO"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Admin Aide VI"/>
+    <s v="City Engineer's Office"/>
+    <n v="16157"/>
+    <n v="27.831"/>
+    <n v="81.221999999999994"/>
+    <n v="109.053"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="84914.058896156697"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="44"/>
+    <s v="MS"/>
+    <s v="JUANITA"/>
+    <s v="M"/>
+    <s v="DE CASTRO"/>
+    <s v="JUANITA M.  DE CASTRO"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Draftsman II"/>
+    <s v="City Engineer's Office"/>
+    <n v="18048"/>
+    <n v="3.6909999999999998"/>
+    <n v="92.5"/>
+    <n v="96.191000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="83665.185894873604"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="45"/>
+    <s v="MS"/>
+    <s v="JULIET"/>
+    <s v="B"/>
+    <s v="GALANG"/>
+    <s v="JULIET B.  GALANG"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Local Legislative Staff Asst. II"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="18048"/>
+    <n v="60.75"/>
+    <n v="89"/>
+    <n v="149.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="130249.8319776"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="45"/>
+    <s v="MS"/>
+    <s v="WILMA"/>
+    <m/>
+    <s v="BAYAS"/>
+    <s v="WILMA  BAYAS"/>
+    <d v="2009-08-31T00:00:00"/>
+    <s v="City Civil Registrar"/>
+    <s v="City Civil Registrar Office"/>
+    <n v="26859"/>
+    <n v="155.494"/>
+    <n v="175"/>
+    <n v="330.49400000000003"/>
+    <n v="4.7808700000000003E-2"/>
+    <n v="424385.32056241028"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="45"/>
+    <s v="MR"/>
+    <s v="INOCENCIO"/>
+    <s v="M"/>
+    <s v="ANGCAYA"/>
+    <s v="INOCENCIO M.  ANGCAYA"/>
+    <d v="2021-07-29T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="Vice Mayor's Office detailed at Civil Security Unit"/>
+    <n v="11374"/>
+    <n v="38.707999999999998"/>
+    <n v="53.707999999999998"/>
+    <n v="92.415999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="50657.254629836796"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="46"/>
+    <s v="MS"/>
+    <s v="ELSA"/>
+    <s v="T"/>
+    <s v="REYES"/>
+    <s v="ELSA T.  REYES"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Admin Aide IV(Clerk II)"/>
+    <s v="Secretary to the Sangguniang Panlungsod"/>
+    <n v="14354"/>
+    <n v="221.816"/>
+    <n v="307.75"/>
+    <n v="529.56600000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="366331.52539514279"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="45"/>
+    <s v="MS"/>
+    <s v="AMELITA"/>
+    <s v="V"/>
+    <s v="FERMA"/>
+    <s v="AMELITA V.  FERMA"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Agriculturist B"/>
+    <s v="City Agriculture Office"/>
+    <n v="26497"/>
+    <n v="187.75"/>
+    <n v="265.75"/>
+    <n v="453.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="579102.25425664999"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="47"/>
+    <s v="MS"/>
+    <s v="PURISIMA CORAZON"/>
+    <s v="E"/>
+    <s v="DUNGO"/>
+    <s v="PURISIMA CORAZON E.  DUNGO"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Ticket Checker"/>
+    <s v="City Treasurer'S Office"/>
+    <n v="13419"/>
+    <n v="22.856999999999999"/>
+    <n v="57.25"/>
+    <n v="80.106999999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="51805.023973019102"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="48"/>
+    <s v="MS"/>
+    <s v="SHIRLEY"/>
+    <s v="G"/>
+    <s v="DATU"/>
+    <s v="SHIRLEY G.  DATU"/>
+    <d v="2023-01-03T00:00:00"/>
+    <s v="Casual Nurse"/>
+    <s v="Ospital ng Tagaytay"/>
+    <n v="24167"/>
+    <n v="1.333"/>
+    <n v="26.332999999999998"/>
+    <n v="27.665999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="32221.842689579396"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34964778-ED56-41E3-A989-5EDA107D8196}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="50">
+        <item x="4"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q73" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q78" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q75">
+    <sortCondition ref="A1:A75"/>
+  </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE" dataDxfId="15"/>
@@ -1433,12 +3205,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D74FC88-12B0-42F9-A64B-FE12451DEB6E}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L58" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView tabSelected="1" topLeftCell="K58" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76:M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,7 +3414,7 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>14</v>
@@ -1556,7 +3436,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P26" si="0">PRODUCT(K2,N2,O2)</f>
+        <f t="shared" ref="P2:P33" si="0">PRODUCT(K2,N2,O2)</f>
         <v>98291.080321647489</v>
       </c>
       <c r="Q2" s="1"/>
@@ -1586,7 +3466,7 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>18</v>
@@ -1638,7 +3518,7 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -1690,7 +3570,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>25</v>
@@ -1742,7 +3622,7 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>28</v>
@@ -1794,7 +3674,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>32</v>
@@ -1846,7 +3726,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>145</v>
@@ -1898,7 +3778,7 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>46</v>
@@ -1929,7 +3809,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1950,7 +3830,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>51</v>
@@ -2000,10 +3880,10 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K11" s="2">
         <v>93942</v>
@@ -2052,10 +3932,10 @@
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K12" s="2">
         <v>93942</v>
@@ -2102,10 +3982,10 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K13" s="2">
         <v>11374</v>
@@ -2154,7 +4034,7 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>18</v>
@@ -2206,7 +4086,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>28</v>
@@ -2258,7 +4138,7 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>68</v>
@@ -2310,7 +4190,7 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>72</v>
@@ -2362,7 +4242,7 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>76</v>
@@ -2466,7 +4346,7 @@
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>84</v>
@@ -2518,7 +4398,7 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>84</v>
@@ -2726,7 +4606,7 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>68</v>
@@ -2834,7 +4714,7 @@
         <v>44651</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>109</v>
@@ -2856,7 +4736,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P27" s="2">
-        <f>PRODUCT(K27,N27,O27)</f>
+        <f t="shared" si="0"/>
         <v>121635.89759883461</v>
       </c>
       <c r="Q27" s="1"/>
@@ -2865,7 +4745,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2910,7 +4790,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P28" s="2">
-        <f>PRODUCT(K28,N28,O28)</f>
+        <f t="shared" si="0"/>
         <v>384787.35918479599</v>
       </c>
       <c r="Q28" s="1"/>
@@ -2962,10 +4842,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" ref="P29:P32" si="1">PRODUCT(K29,N29,O29)</f>
+        <f t="shared" si="0"/>
         <v>61868.830381894804</v>
       </c>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3015,7 +4897,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47962.579857500001</v>
       </c>
       <c r="Q30" s="1"/>
@@ -3067,10 +4949,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37909.504372555202</v>
       </c>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -3099,7 +4983,7 @@
         <v>44712</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>129</v>
@@ -3121,10 +5005,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>446804.29758919508</v>
       </c>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -3175,7 +5061,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" ref="P33:P39" si="2">PRODUCT(K33,N33,O33)</f>
+        <f t="shared" si="0"/>
         <v>27224.829433678799</v>
       </c>
       <c r="Q33" s="1"/>
@@ -3207,7 +5093,7 @@
         <v>44742</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>117</v>
@@ -3229,7 +5115,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P34:P65" si="1">PRODUCT(K34,N34,O34)</f>
         <v>2592934.7778252</v>
       </c>
       <c r="Q34" s="1"/>
@@ -3261,7 +5147,7 @@
         <v>44742</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>117</v>
@@ -3283,7 +5169,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>229362.31229249999</v>
       </c>
       <c r="Q35" s="1"/>
@@ -3315,7 +5201,7 @@
         <v>44742</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>117</v>
@@ -3337,7 +5223,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>206920.31985231899</v>
       </c>
       <c r="Q36" s="1"/>
@@ -3367,7 +5253,7 @@
         <v>44742</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>117</v>
@@ -3389,7 +5275,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88651.926876769197</v>
       </c>
       <c r="Q37" s="1"/>
@@ -3441,7 +5327,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53581.053497950001</v>
       </c>
       <c r="Q38" s="1"/>
@@ -3495,10 +5381,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34533.057497399997</v>
       </c>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -3527,7 +5415,7 @@
         <v>44742</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>117</v>
@@ -3549,7 +5437,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" ref="P40" si="3">PRODUCT(K40,N40,O40)</f>
+        <f t="shared" si="1"/>
         <v>106983.1675008</v>
       </c>
       <c r="Q40" s="1"/>
@@ -3581,7 +5469,7 @@
         <v>44742</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>117</v>
@@ -3603,7 +5491,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" ref="P41" si="4">PRODUCT(K41,N41,O41)</f>
+        <f t="shared" si="1"/>
         <v>132932.477177319</v>
       </c>
       <c r="Q41" s="1"/>
@@ -3635,10 +5523,10 @@
         <v>44742</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K42" s="2">
         <v>98900</v>
@@ -3657,10 +5545,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" ref="P42:P51" si="5">PRODUCT(K42,N42,O42)</f>
+        <f t="shared" si="1"/>
         <v>1707912.3049220201</v>
       </c>
-      <c r="Q42" s="1"/>
+      <c r="Q42" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -3711,10 +5601,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>39301.217018571202</v>
       </c>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -3765,10 +5657,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>444025.33195323561</v>
       </c>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -3800,7 +5694,7 @@
         <v>173</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K45" s="2">
         <v>10934</v>
@@ -3819,7 +5713,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" ref="P45" si="6">PRODUCT(K45,N45,O45)</f>
+        <f t="shared" si="1"/>
         <v>28805.6463790788</v>
       </c>
       <c r="Q45" s="1"/>
@@ -3873,7 +5767,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>80323.636221257009</v>
       </c>
       <c r="Q46" s="1"/>
@@ -3908,7 +5802,7 @@
         <v>173</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K47" s="2">
         <v>10494</v>
@@ -3927,10 +5821,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>24191.289426229199</v>
       </c>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -3981,10 +5877,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>66898.455541499992</v>
       </c>
-      <c r="Q48" s="1"/>
+      <c r="Q48" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -4035,7 +5933,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>52808.170782532005</v>
       </c>
       <c r="Q49" s="1"/>
@@ -4089,10 +5987,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>67135.3045415448</v>
       </c>
-      <c r="Q50" s="1"/>
+      <c r="Q50" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -4143,7 +6043,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>38482.750466774996</v>
       </c>
       <c r="Q51" s="1"/>
@@ -4197,7 +6097,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" ref="P52:P57" si="7">PRODUCT(K52,N52,O52)</f>
+        <f t="shared" si="1"/>
         <v>156379.57897833502</v>
       </c>
       <c r="Q52" s="1"/>
@@ -4229,10 +6129,10 @@
         <v>192</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K53" s="2">
         <v>13419</v>
@@ -4251,7 +6151,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>80190.532321199993</v>
       </c>
       <c r="Q53" s="1"/>
@@ -4273,7 +6173,7 @@
         <v>60</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D54,"  ",F54),CONCATENATE(D54," ",LEFT(E54,1),".  ",F54)))</f>
@@ -4305,10 +6205,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>40837.771089499998</v>
       </c>
-      <c r="Q54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -4359,11 +6261,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>65475.084146999994</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +6295,10 @@
         <v>44742</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K56" s="2">
         <v>24167</v>
@@ -4415,11 +6317,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>183360.2907479915</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,7 +6373,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>65759.7584259</v>
       </c>
       <c r="Q57" s="1"/>
@@ -4506,7 +6408,7 @@
         <v>80</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="K58" s="2">
         <v>13419</v>
@@ -4525,10 +6427,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" ref="P58:P59" si="8">PRODUCT(K58,N58,O58)</f>
+        <f t="shared" si="1"/>
         <v>155962.82499063839</v>
       </c>
-      <c r="Q58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -4541,13 +6445,13 @@
         <v>36</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D59,"  ",F59),CONCATENATE(D59," ",LEFT(E59,1),".  ",F59)))</f>
@@ -4560,7 +6464,7 @@
         <v>173</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K59" s="2">
         <v>11814</v>
@@ -4579,11 +6483,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>47682.941715749999</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,10 +6517,10 @@
         <v>44742</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K60" s="2">
         <v>13419</v>
@@ -4635,11 +6539,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" ref="P60:P61" si="9">PRODUCT(K60,N60,O60)</f>
+        <f t="shared" si="1"/>
         <v>61031.462074846197</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +6557,13 @@
         <v>36</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D61,"  ",F61),CONCATENATE(D61," ",LEFT(E61,1),".  ",F61)))</f>
@@ -4669,10 +6573,10 @@
         <v>38092</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K61" s="2">
         <v>14944</v>
@@ -4691,11 +6595,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>165884.6370547392</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,7 +6613,7 @@
         <v>36</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>23</v>
@@ -4725,10 +6629,10 @@
         <v>44816</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K62" s="2">
         <v>13419</v>
@@ -4747,11 +6651,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P62" s="2">
-        <f>PRODUCT(K62,N62,O62)</f>
+        <f t="shared" si="1"/>
         <v>74282.947540924491</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,7 +6669,7 @@
         <v>38</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>44</v>
@@ -4781,10 +6685,10 @@
         <v>43647</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K63" s="2">
         <v>102072</v>
@@ -4803,11 +6707,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P63" s="2">
-        <f t="shared" ref="P63:P65" si="10">PRODUCT(K63,N63,O63)</f>
+        <f t="shared" si="1"/>
         <v>1131398.813112</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,7 +6728,7 @@
         <v>57</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>58</v>
@@ -4840,7 +6744,7 @@
         <v>173</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K64" s="2">
         <v>11814</v>
@@ -4859,11 +6763,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P64" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>65095.898007505195</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +6781,13 @@
         <v>36</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D65,"  ",F65),CONCATENATE(D65," ",LEFT(E65,1),".  ",F65)))</f>
@@ -4893,10 +6797,10 @@
         <v>44855</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K65" s="2">
         <v>16033</v>
@@ -4915,11 +6819,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>109333.30861265</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +6837,13 @@
         <v>36</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D66,"  ",F66),CONCATENATE(D66," ",LEFT(E66,1),".  ",F66)))</f>
@@ -4949,10 +6853,10 @@
         <v>44774</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K66" s="2">
         <v>26228</v>
@@ -4971,11 +6875,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" ref="P66:P67" si="11">PRODUCT(K66,N66,O66)</f>
+        <f t="shared" ref="P66:P97" si="2">PRODUCT(K66,N66,O66)</f>
         <v>160407.68339831798</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +6893,13 @@
         <v>36</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D67,"  ",F67),CONCATENATE(D67," ",LEFT(E67,1),".  ",F67)))</f>
@@ -5005,10 +6909,10 @@
         <v>44926</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K67" s="2">
         <v>16157</v>
@@ -5027,11 +6931,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>84914.058896156697</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,7 +6949,7 @@
         <v>36</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>44</v>
@@ -5061,10 +6965,10 @@
         <v>44926</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K68" s="2">
         <v>18048</v>
@@ -5083,11 +6987,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P68" s="2">
-        <f>PRODUCT(K68,N68,O68)</f>
+        <f t="shared" si="2"/>
         <v>83665.185894873604</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,10 +7021,10 @@
         <v>44742</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K69" s="2">
         <v>18048</v>
@@ -5139,10 +7043,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" ref="P69:P73" si="12">PRODUCT(K69,N69,O69)</f>
+        <f t="shared" si="2"/>
         <v>130249.8319776</v>
       </c>
-      <c r="Q69" s="1"/>
+      <c r="Q69" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -5155,11 +7061,11 @@
         <v>36</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D70,"  ",F70),CONCATENATE(D70," ",LEFT(E70,1),".  ",F70)))</f>
@@ -5169,10 +7075,10 @@
         <v>40056</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K70" s="2">
         <v>26859</v>
@@ -5188,13 +7094,15 @@
         <v>330.49400000000003</v>
       </c>
       <c r="O70" s="4">
-        <v>4.8192699999999998E-2</v>
+        <v>4.7808700000000003E-2</v>
       </c>
       <c r="P70" s="2">
-        <f t="shared" si="12"/>
-        <v>427793.98808727425</v>
-      </c>
-      <c r="Q70" s="1"/>
+        <f t="shared" si="2"/>
+        <v>424385.32056241028</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -5207,7 +7115,7 @@
         <v>38</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>44</v>
@@ -5226,7 +7134,7 @@
         <v>173</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K71" s="2">
         <v>11374</v>
@@ -5245,23 +7153,25 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>50657.254629836796</v>
       </c>
-      <c r="Q71" s="1"/>
+      <c r="Q71" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>72</v>
       </c>
       <c r="B72" s="10">
-        <v>44917</v>
+        <v>44916</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>151</v>
@@ -5277,10 +7187,10 @@
         <v>44926</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K72" s="2">
         <v>14354</v>
@@ -5299,10 +7209,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>366331.52539514279</v>
       </c>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
@@ -5311,32 +7223,252 @@
       <c r="B73" s="10">
         <v>44917</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="G73" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D73,"  ",F73),CONCATENATE(D73," ",LEFT(E73,1),".  ",F73)))</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="3"/>
+        <v>AMELITA V.  FERMA</v>
+      </c>
+      <c r="H73" s="7">
+        <v>44926</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K73" s="2">
+        <v>26497</v>
+      </c>
+      <c r="L73" s="12">
+        <v>187.75</v>
+      </c>
+      <c r="M73" s="3">
+        <v>265.75</v>
+      </c>
       <c r="N73" s="3">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
+        <v>453.5</v>
       </c>
       <c r="O73" s="4">
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
+        <v>579102.25425664999</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" s="10">
+        <v>44918</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G74" s="6" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D74,"  ",F74),CONCATENATE(D74," ",LEFT(E74,1),".  ",F74)))</f>
+        <v>PURISIMA CORAZON E.  DUNGO</v>
+      </c>
+      <c r="H74" s="7">
+        <v>44926</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K74" s="2">
+        <v>13419</v>
+      </c>
+      <c r="L74" s="12">
+        <v>22.856999999999999</v>
+      </c>
+      <c r="M74" s="3">
+        <v>57.25</v>
+      </c>
+      <c r="N74" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>80.106999999999999</v>
+      </c>
+      <c r="O74" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P74" s="2">
+        <f t="shared" si="2"/>
+        <v>51805.023973019102</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" s="10">
+        <v>44929</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G75" s="6" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D75,"  ",F75),CONCATENATE(D75," ",LEFT(E75,1),".  ",F75)))</f>
+        <v>SHIRLEY G.  DATU</v>
+      </c>
+      <c r="H75" s="7">
+        <v>44929</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K75" s="2">
+        <v>24167</v>
+      </c>
+      <c r="L75" s="12">
+        <v>1.333</v>
+      </c>
+      <c r="M75" s="3">
+        <v>26.332999999999998</v>
+      </c>
+      <c r="N75" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>27.665999999999997</v>
+      </c>
+      <c r="O75" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P75" s="2">
+        <f t="shared" si="2"/>
+        <v>32221.842689579396</v>
+      </c>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="25" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D76,"  ",F76),CONCATENATE(D76," ",LEFT(E76,1),".  ",F76)))</f>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="2">
+        <v>11814</v>
+      </c>
+      <c r="L76" s="12"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
         <v>0</v>
       </c>
-      <c r="Q73" s="1"/>
+      <c r="O76" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P76" s="2">
+        <f t="shared" ref="P76:P78" si="3">PRODUCT(K76,N76,O76)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="25" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D77,"  ",F77),CONCATENATE(D77," ",LEFT(E77,1),".  ",F77)))</f>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="26"/>
+      <c r="P77" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="25" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D78,"  ",F78),CONCATENATE(D78," ",LEFT(E78,1),".  ",F78)))</f>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="26"/>
+      <c r="P78" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5351,7 +7483,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C73</xm:sqref>
+          <xm:sqref>C2:C78</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5359,7 +7491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>
@@ -5377,10 +7509,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
